--- a/과제2/SE_16_2_B711084_배형민.xlsx
+++ b/과제2/SE_16_2_B711084_배형민.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
   <si>
     <t xml:space="preserve"> Requirement list  (functional, non-functional 구분)</t>
   </si>
@@ -61,7 +61,7 @@
     <t>회원</t>
   </si>
   <si>
-    <t>회원은 회원가입을 할 수 있고, 로그인을 통해 시스템에 대한 사용 권한을 얻을 수 있습니다. 또한 로그인 하여 의류를 등록/ 판매/ 조회 할 수 있습니다.</t>
+    <t>회원은 회원가입을 할 수 있고, 로그인을 통해 시스템에 대한 사용 권한을 얻을 수 있습니다. 또한 시스템 사용을 마친 후 로그아웃합니다.</t>
   </si>
   <si>
     <t>Use case diagrams</t>
@@ -127,7 +127,7 @@
     <t>5-1. yes 버튼 클릭</t>
   </si>
   <si>
-    <t xml:space="preserve">5-2. 회원이 등록한 물품이 있는지 확인 후 사용자에게 알림을 반환합니다. </t>
+    <t>5-2. 회원의 정보를 삭제 후 회원 탈퇴를 완료합니다.</t>
   </si>
   <si>
     <t>6-1. no 버튼 클릭</t>
@@ -136,9 +136,6 @@
     <t>6-2. 초기상태인 1번으로 되돌아갑니다.</t>
   </si>
   <si>
-    <t>추가) 5-2에서 등록된 물품이 남아있다면 거절알림을 띄우고 6-2를 수행합니다</t>
-  </si>
-  <si>
     <t xml:space="preserve">3. ID/PW 입력후 로그인 </t>
   </si>
   <si>
@@ -148,10 +145,16 @@
     <t>2. 로그인하여 시스템을 사용중인 상황입니다.</t>
   </si>
   <si>
-    <t>3. 로그아웃 버튼 클릭</t>
-  </si>
-  <si>
-    <t>4. 시스템에서 로그아웃 됩니다</t>
+    <t>3.로그아웃 버튼 클릭</t>
+  </si>
+  <si>
+    <t>4. 로그아웃 하겠냐는 확인창 출력</t>
+  </si>
+  <si>
+    <t>5. Yes 버튼 클릭</t>
+  </si>
+  <si>
+    <t>6. 시스템에서 로그아웃 됩니다</t>
   </si>
 </sst>
 </file>
@@ -857,9 +860,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="C57" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="C57" s="1"/>
     </row>
     <row r="59">
       <c r="C59" s="1" t="s">
@@ -884,10 +885,10 @@
     </row>
     <row r="62">
       <c r="C62" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="64">
@@ -908,15 +909,23 @@
         <v>33</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="67">
       <c r="C67" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D67" s="1" t="s">
+    </row>
+    <row r="68">
+      <c r="C68" s="1" t="s">
         <v>46</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="70">

--- a/과제2/SE_16_2_B711084_배형민.xlsx
+++ b/과제2/SE_16_2_B711084_배형민.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
   <si>
     <t xml:space="preserve"> Requirement list  (functional, non-functional 구분)</t>
   </si>
@@ -49,24 +49,6 @@
     <t>로그아웃</t>
   </si>
   <si>
-    <t>Actor descriptions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">actor </t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>회원</t>
-  </si>
-  <si>
-    <t>회원은 회원가입을 할 수 있고, 로그인을 통해 시스템에 대한 사용 권한을 얻을 수 있습니다. 또한 시스템 사용을 마친 후 로그아웃합니다.</t>
-  </si>
-  <si>
-    <t>Use case diagrams</t>
-  </si>
-  <si>
     <t>UI screen design &amp; use case descriptions (step by step breakdown)</t>
   </si>
   <si>
@@ -76,10 +58,10 @@
     <t>Description</t>
   </si>
   <si>
-    <t>쇼핑 사이트를 이용하기 위하여 모든 고객은 회원가입을 해야 합니다. 회원 가입시 자신의 기본 정보와 ID/PW를 입력하여야 합니다.</t>
-  </si>
-  <si>
-    <t>회원은 쇼핑사이트에서 회원 탈퇴할 수 있습니다. 회원 탈퇴를 위해 등록된 상품이 하나도 없어야 하며, 회원 탈퇴시 시스템 사용 권한은 소멸됩니다.</t>
+    <t>쇼핑 사이트를 이용하기 위하여 모든 고객은 회원가입을 해야 합니다. 회원 가입시 자신의 이름과 주민번호, ID/PW를 입력하여야 합니다.</t>
+  </si>
+  <si>
+    <t>회원은 쇼핑사이트에서 회원 탈퇴할 수 있습니다. 회원 탈퇴시 회원의 정보와 사용 권한은 소멸합니다.</t>
   </si>
   <si>
     <t>회원은 회원가입시 등록한 ID/PW로 시스템에 로그인 할 수 있습니다.</t>
@@ -178,7 +160,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -199,12 +181,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00FF00"/>
-        <bgColor rgb="FF00FF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF9900"/>
         <bgColor rgb="FFFF9900"/>
       </patternFill>
@@ -216,7 +192,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="9">
     <border/>
     <border>
       <left style="thin">
@@ -266,36 +242,6 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -304,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -345,26 +291,12 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="3" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -683,330 +615,288 @@
       <c r="E11" s="13"/>
     </row>
     <row r="12">
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="E12" s="14"/>
+    </row>
+    <row r="13">
+      <c r="C13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="16"/>
-    </row>
-    <row r="13">
-      <c r="C13" s="1"/>
+      <c r="E13" s="14"/>
     </row>
     <row r="14">
-      <c r="C14" s="1"/>
+      <c r="C14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="14"/>
     </row>
     <row r="15">
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="C15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="15"/>
+    </row>
+    <row r="16">
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="22">
+      <c r="C22" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="13"/>
+    </row>
+    <row r="24">
+      <c r="C24" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="14"/>
+    </row>
+    <row r="25">
+      <c r="C25" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="14"/>
+    </row>
+    <row r="26">
+      <c r="C26" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="15"/>
     </row>
     <row r="28">
-      <c r="A28" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>17</v>
+      <c r="C28" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="1"/>
+    </row>
+    <row r="36">
+      <c r="C36" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D34" s="18" t="s">
+      <c r="D37" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E34" s="19"/>
-    </row>
-    <row r="35">
-      <c r="C35" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E35" s="20"/>
-    </row>
-    <row r="36">
-      <c r="C36" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" s="1" t="s">
+    </row>
+    <row r="38">
+      <c r="C38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E36" s="20"/>
-    </row>
-    <row r="37">
-      <c r="C37" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E37" s="20"/>
-    </row>
-    <row r="38">
-      <c r="C38" s="7" t="s">
+    </row>
+    <row r="39">
+      <c r="C39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D38" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E38" s="21"/>
-    </row>
-    <row r="39">
-      <c r="C39" s="1"/>
-    </row>
-    <row r="40">
-      <c r="C40" s="1"/>
-    </row>
-    <row r="41">
-      <c r="C41" s="1"/>
     </row>
     <row r="42">
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
+      <c r="C42" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="45">
       <c r="C45" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="C46" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D46" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E46" s="19"/>
+        <v>40</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="47">
-      <c r="C47" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E47" s="20"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
     </row>
     <row r="48">
-      <c r="C48" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E48" s="20"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
     </row>
     <row r="49">
-      <c r="C49" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E49" s="21"/>
-    </row>
-    <row r="51">
-      <c r="C51" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="C52" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D52" s="18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="C53" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="C54" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="C55" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="C56" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="C57" s="1"/>
-    </row>
-    <row r="59">
-      <c r="C59" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="C60" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D60" s="18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="C61" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="C62" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="C64" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="C65" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D65" s="18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="C66" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="C67" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="C68" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="C70" s="22"/>
-      <c r="D70" s="22"/>
-    </row>
-    <row r="71">
-      <c r="C71" s="23"/>
-      <c r="D71" s="23"/>
-    </row>
-    <row r="72">
-      <c r="C72" s="23"/>
-      <c r="D72" s="23"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
     </row>
     <row r="73">
-      <c r="C73" s="23"/>
-      <c r="D73" s="23"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="17"/>
     </row>
     <row r="74">
-      <c r="C74" s="23"/>
-      <c r="D74" s="23"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="17"/>
     </row>
     <row r="75">
-      <c r="C75" s="23"/>
-      <c r="D75" s="23"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="17"/>
     </row>
     <row r="76">
-      <c r="C76" s="23"/>
-      <c r="D76" s="23"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="17"/>
     </row>
     <row r="77">
-      <c r="C77" s="22"/>
-      <c r="D77" s="22"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="16"/>
     </row>
     <row r="78">
-      <c r="C78" s="23"/>
-      <c r="D78" s="23"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17"/>
     </row>
     <row r="79">
-      <c r="C79" s="23"/>
-      <c r="D79" s="23"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="17"/>
     </row>
     <row r="80">
-      <c r="C80" s="23"/>
-      <c r="D80" s="23"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="17"/>
     </row>
     <row r="81">
-      <c r="C81" s="23"/>
-      <c r="D81" s="23"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="17"/>
     </row>
     <row r="82">
-      <c r="C82" s="22"/>
-      <c r="D82" s="22"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="16"/>
     </row>
     <row r="83">
-      <c r="C83" s="23"/>
-      <c r="D83" s="23"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="17"/>
     </row>
     <row r="84">
-      <c r="C84" s="23"/>
-      <c r="D84" s="23"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="17"/>
     </row>
     <row r="85">
-      <c r="C85" s="23"/>
-      <c r="D85" s="23"/>
+      <c r="C85" s="17"/>
+      <c r="D85" s="17"/>
     </row>
     <row r="86">
-      <c r="C86" s="23"/>
-      <c r="D86" s="23"/>
+      <c r="C86" s="17"/>
+      <c r="D86" s="17"/>
     </row>
     <row r="87">
-      <c r="C87" s="23"/>
-      <c r="D87" s="23"/>
+      <c r="C87" s="17"/>
+      <c r="D87" s="17"/>
     </row>
     <row r="88">
-      <c r="C88" s="23"/>
-      <c r="D88" s="23"/>
+      <c r="C88" s="17"/>
+      <c r="D88" s="17"/>
     </row>
     <row r="89">
-      <c r="C89" s="22"/>
-      <c r="D89" s="22"/>
+      <c r="C89" s="16"/>
+      <c r="D89" s="16"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
